--- a/log_history/Y4_B2526_Cardiology_scanner1767181473169_897d3d4ed4cd1629116f10f67f18ed4532b1b68fb7fd145e360e1c8b876713b0.xlsx
+++ b/log_history/Y4_B2526_Cardiology_scanner1767181473169_897d3d4ed4cd1629116f10f67f18ed4532b1b68fb7fd145e360e1c8b876713b0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Cardiology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
